--- a/Crops.xlsx
+++ b/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE826BA-ED3C-4125-9BF2-B6E39C9303FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19433C-3769-4CF2-8588-88128018A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10BA0F22-5523-9E4B-AC34-05FDBA276E53}"/>
   </bookViews>
@@ -194,7 +194,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -213,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,22 +272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,13 +303,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DD835-C766-5342-806B-D1F450782E93}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +634,7 @@
     <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="68.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="68" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -678,7 +663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -707,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -736,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -765,7 +750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -794,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -823,7 +808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -852,7 +837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -881,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -910,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -939,7 +924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -968,7 +953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -997,7 +982,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1026,7 +1011,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1055,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1084,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1113,7 +1098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1142,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1171,7 +1156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1220,7 +1205,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>0</v>
       </c>
     </row>
